--- a/src/test/resources/Exceldata/dsaAlgoPractiseTestData.xlsx
+++ b/src/test/resources/Exceldata/dsaAlgoPractiseTestData.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="16212" windowHeight="5808"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PythonCode" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>

--- a/src/test/resources/Exceldata/dsaAlgoPractiseTestData.xlsx
+++ b/src/test/resources/Exceldata/dsaAlgoPractiseTestData.xlsx
@@ -16,20 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>InputCode</t>
-  </si>
-  <si>
-    <t>ExpectedOutput</t>
-  </si>
-  <si>
-    <t>def search(input_list, num):
-    if num in input_list:
-       print "element found"
-    else:
-     print "not found"
-search([12,23,45,67,6,90],12)</t>
   </si>
   <si>
     <t>element found</t>
@@ -44,6 +33,32 @@
   </si>
   <si>
     <t>element not found</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>def search(input_list, num):
+    if num in input_list:
+       print "element found";;;
+    else:
+     print "element not found"
+search([12,23,45,67,6,90],5)</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SyntaxError: </t>
   </si>
 </sst>
 </file>
@@ -67,15 +82,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,16 +116,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,41 +438,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33.21875" customWidth="1"/>
     <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="86.4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
-    <row r="2" spans="1:2" ht="86.4">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:4" ht="86.4">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="86.4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:4" ht="86.4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
